--- a/files/chart_of_accounts_import_sample.xlsx
+++ b/files/chart_of_accounts_import_sample.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Php\Accounting_Go\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E7B47-6E84-4412-810C-589016B9313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -83,13 +89,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +161,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +487,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -480,7 +508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -497,7 +525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -514,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>

--- a/files/chart_of_accounts_import_sample.xlsx
+++ b/files/chart_of_accounts_import_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Php\Accounting_Go\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E7B47-6E84-4412-810C-589016B9313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC73E3A-DF4E-4CB2-909E-896E01675CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -37,18 +37,9 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
     <t>Sales Revenue</t>
   </si>
   <si>
-    <t>Utilities Expense</t>
-  </si>
-  <si>
     <t>asset</t>
   </si>
   <si>
@@ -61,37 +52,274 @@
     <t>expense</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
-    <t>Operating Revenue</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Money</t>
+  </si>
+  <si>
+    <t>Opening Stock</t>
+  </si>
+  <si>
+    <t>Closing Stock</t>
+  </si>
+  <si>
+    <t>Freight Inward</t>
+  </si>
+  <si>
+    <t>Direct Labor</t>
+  </si>
+  <si>
+    <t>Factory Overheads</t>
+  </si>
+  <si>
+    <t>Subcontract Cost</t>
+  </si>
+  <si>
+    <t>Tools and Spares</t>
+  </si>
+  <si>
+    <t>Product License Fee</t>
+  </si>
+  <si>
+    <t>Petty Cash</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Checking Account</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Inventory Asset</t>
+  </si>
+  <si>
+    <t>Fixed Asset Vehicles</t>
+  </si>
+  <si>
+    <t>Furniture and Equipment</t>
+  </si>
+  <si>
+    <t>Office Equipment</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Depreciation Vehicles</t>
+  </si>
+  <si>
+    <t>Depreciation Office Equipment</t>
+  </si>
+  <si>
+    <t>Depreciation Furniture and Equipment</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation -Building</t>
+  </si>
+  <si>
+    <t>Software License</t>
+  </si>
+  <si>
+    <t>Software Depreciation</t>
+  </si>
+  <si>
+    <t>Sales from Service</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Miscellaneous Income</t>
+  </si>
+  <si>
+    <t>Gain on Sale of Asset</t>
+  </si>
+  <si>
+    <t>Investment Income</t>
+  </si>
+  <si>
+    <t>Discount Received</t>
+  </si>
+  <si>
+    <t>Salary and Wages</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Gratuity</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
+  </si>
+  <si>
+    <t>Workmen Compensation</t>
+  </si>
+  <si>
+    <t>Accounting and Legal Fees</t>
+  </si>
+  <si>
+    <t>Audit Fees</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Telephone and Communication</t>
+  </si>
+  <si>
+    <t>Printing and Stationery</t>
+  </si>
+  <si>
+    <t>Utility Expenses</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Internet Expenses</t>
+  </si>
+  <si>
+    <t>Software License Fees</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Depreciation Expense</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>License Fee</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses</t>
+  </si>
+  <si>
+    <t>Account Payable</t>
+  </si>
+  <si>
+    <t>Salaries Payable</t>
+  </si>
+  <si>
+    <t>Sales Tax Payable</t>
+  </si>
+  <si>
+    <t>Customer Deposit</t>
+  </si>
+  <si>
+    <t>Loan Payable</t>
+  </si>
+  <si>
+    <t>Opening Balance Adjustments</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities</t>
+  </si>
+  <si>
+    <t>VAT Payable</t>
+  </si>
+  <si>
+    <t>VAT Adjustment Payable</t>
+  </si>
+  <si>
+    <t>VAT Rounding Payable</t>
+  </si>
+  <si>
+    <t>Loan From Director</t>
+  </si>
+  <si>
+    <t>Other Long Term Liabilities</t>
+  </si>
+  <si>
+    <t>Bank Loan</t>
+  </si>
+  <si>
+    <t>Vehicle Loan</t>
+  </si>
+  <si>
+    <t>Loan From Others</t>
+  </si>
+  <si>
+    <t>Lease Obligation</t>
+  </si>
+  <si>
+    <t>Accrued Liabilities</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>Accrued Income</t>
+  </si>
+  <si>
+    <t>Opening Balance Equity</t>
+  </si>
+  <si>
+    <t>Suspense Account</t>
+  </si>
+  <si>
+    <t>Owner's Equity</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>Owner's Drawing</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Travel Allowance</t>
+  </si>
+  <si>
+    <t>Advertising and Promotion</t>
+  </si>
+  <si>
+    <t>Fuel and Lubricants</t>
+  </si>
+  <si>
+    <t>Travel and Transportation</t>
+  </si>
+  <si>
+    <t>Postage and Courier</t>
+  </si>
+  <si>
+    <t>Other Operating Expenses</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>Bad Debt</t>
+  </si>
+  <si>
+    <t>Loss on Asset Disposal</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Tax Due - VAT</t>
+  </si>
+  <si>
+    <t>Tax Due - Income Tax</t>
+  </si>
+  <si>
+    <t>Tax Due - PAYE</t>
+  </si>
+  <si>
+    <t>Tax Due - Withholding Tax</t>
+  </si>
+  <si>
+    <t>Tax Due - Other Taxes</t>
   </si>
 </sst>
 </file>
@@ -115,15 +343,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,15 +380,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,75 +756,1767 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5006</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5007</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1012</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1013</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1016</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1017</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1019</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+      <c r="C25" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4200</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4400</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4600</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5">
+        <v>6003</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6004</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6101</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6102</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>6105</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6106</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6107</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6108</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6109</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6110</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5">
+        <v>6111</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6118</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <v>6119</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6120</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6121</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6122</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2100</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2102</v>
+      </c>
+      <c r="D53" s="5">
+        <v>6</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2103</v>
+      </c>
+      <c r="D54" s="2">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2104</v>
+      </c>
+      <c r="D55" s="5">
+        <v>6</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2105</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2106</v>
+      </c>
+      <c r="D57" s="5">
+        <v>6</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2201</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2202</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2300</v>
+      </c>
+      <c r="D61" s="5">
+        <v>6</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2301</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2302</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2303</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2304</v>
+      </c>
+      <c r="D65" s="5">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2305</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2400</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2401</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2402</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2998</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2999</v>
+      </c>
+      <c r="D71" s="5">
+        <v>7</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3001</v>
+      </c>
+      <c r="D73" s="5">
+        <v>7</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5">
+        <v>6005</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D76" s="2">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6112</v>
+      </c>
+      <c r="D77" s="5">
+        <v>8</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6113</v>
+      </c>
+      <c r="D78" s="2">
+        <v>8</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6114</v>
+      </c>
+      <c r="D79" s="5">
+        <v>8</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6115</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="5">
+        <v>6103</v>
+      </c>
+      <c r="D81" s="5">
+        <v>9</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6104</v>
+      </c>
+      <c r="D82" s="2">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="5">
+        <v>6116</v>
+      </c>
+      <c r="D83" s="5">
+        <v>9</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6117</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D85" s="5">
+        <v>10</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2501</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2502</v>
+      </c>
+      <c r="D87" s="5">
+        <v>10</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2503</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2504</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
